--- a/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -773,7 +774,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,17 +785,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -804,13 +825,521 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7995</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3820</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安新动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1286,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,17 +1298,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1317,14 +1338,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.92</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1333,13 +1376,877 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6028</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.95</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007439</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东海科技动力混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1004</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.92</v>
       </c>
     </row>
     <row r="4">
@@ -580,188 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>320018</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安新动力混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.64</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0628</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007463</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东海科技动力混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.43</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0112</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006538</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东海核心价值精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.76</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001744</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安进取回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006025</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安优化配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>67.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -770,6 +532,896 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2309</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9792</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3800</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,13 +1933,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1338,36 +1990,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>001743</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>诺安优选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2309</t>
+          <t>0.6028</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1376,36 +2028,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320003</t>
+          <t>007439</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安先锋混合</t>
+          <t>东海科技动力混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.96</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.54</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.1222</t>
+          <t>0.1004</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1414,36 +2066,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014038</t>
+          <t>320018</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银启诚混合A</t>
+          <t>诺安新动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>79.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.9792</t>
+          <t>0.0628</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1452,36 +2104,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>688888</t>
+          <t>007463</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商聚潮产业成长混合</t>
+          <t>东海科技动力混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>87.43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5490</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1490,36 +2142,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001743</t>
+          <t>006538</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安优选回报灵活配置混合</t>
+          <t>东海核心价值精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>73.56</t>
+          <t>87.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4649</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1528,36 +2180,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013531</t>
+          <t>001744</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商聚潮产业成长混合C</t>
+          <t>诺安进取回报灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>91.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3800</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1566,688 +2218,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013430</t>
+          <t>006025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银趋势优先混合C</t>
+          <t>诺安优化配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3594</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014039</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银启诚混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>80.57</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2720</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010381</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>浙商智选价值混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2475</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001088</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华宝国策导向混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.17</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1177</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001707</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>012621</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>诺安先锋混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>70.54</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0420</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009568</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浙商智多宝稳健一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25.02</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007439</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东海科技动力混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010382</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商智选价值混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009569</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙商智多宝稳健一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>25.02</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007316</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>20.70</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007463</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东海科技动力混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007317</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.70</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006538</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东海核心价值精选混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.21</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001744</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>诺安进取回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>75.58</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>014536</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.78</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
-        <v>7.95</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>2.92</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -532,6 +549,1810 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011198</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011199</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>61.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1421,7 +3242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1933,7 +3754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
+++ b/数据整理/stocks/A股/科创板/688377-迪威尔.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
-        <v>14.2</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>7.95</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>2.92</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -549,6 +566,2530 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0864</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安先锋混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商丰利增强债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>47.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7627</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7849</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6259</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6167</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013531</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5335</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010381</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4562</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010382</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智选价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4238</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3919</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3905</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城安心回报混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013993</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008811</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华科技创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>016105</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016106</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信兴乐优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>54.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015630</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013994</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中欧光熠一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012621</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015722</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015965</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城安心回报混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011198</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>30.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011199</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015631</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2352,7 +4893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3242,7 +5783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3754,7 +6295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
